--- a/Document/2.Design/Compare_Function_Other.xlsx
+++ b/Document/2.Design/Compare_Function_Other.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C4EF9-110E-4633-8DF3-CBD48C1FDD32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D1E1C-366A-4D3D-9682-B3C146798820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SoSanh" sheetId="1" r:id="rId1"/>
+    <sheet name="DanhSachTinhNang" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>LogDez</t>
   </si>
@@ -138,6 +139,82 @@
   <si>
     <t>Bảng so sánh hệ thống Logdez - Các hệ thống Quản lý kho khác
 Chỉ so sánh các đầu mục chính, các tính năng cơ bản của hệ thống Kho bao gồm Xuất/Nhập/Tồn không so sánh)</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Danh mục nhóm hàng hóa</t>
+  </si>
+  <si>
+    <t>Danh mục hàng hóa</t>
+  </si>
+  <si>
+    <t>Danh mục kho</t>
+  </si>
+  <si>
+    <t>Thiết lập vị trí trong kho khi tạo mới kho</t>
+  </si>
+  <si>
+    <t>Danh mục đối tác</t>
+  </si>
+  <si>
+    <t>Quản lý nhập kho</t>
+  </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Quản lý xuất kho</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Quản lý tồn kho</t>
+  </si>
+  <si>
+    <t>Thông tin kho</t>
+  </si>
+  <si>
+    <t>Tìm kiếm serial</t>
+  </si>
+  <si>
+    <t>Quản lý bán kho</t>
+  </si>
+  <si>
+    <t>Bán hàng</t>
+  </si>
+  <si>
+    <t>Tiện ích</t>
+  </si>
+  <si>
+    <t>Xem thông tin giao dịch</t>
+  </si>
+  <si>
+    <t>- Xem tồn kho tổng hợp, chi tiết
+- Xuất báo cáo tồn kho theo số lượng, tồn tiền
+- Tra cứu thẻ kho</t>
+  </si>
+  <si>
+    <t>Danh sách tính năng chính Hệ thống Quản lý kho-bán hàng Logdez</t>
+  </si>
+  <si>
+    <t>Quản trị hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách vai trò</t>
+  </si>
+  <si>
+    <t>Danh sách người dùng</t>
+  </si>
+  <si>
+    <t>- Thêm mới/sửa/xóa thông tin người dùng
+- Khóa người dùng
+- Thay đổi mật khẩu người dùng
+- Phân quyền vai trò
+- Phân quyền quản lý kho
+- Phân quyền đối tác</t>
   </si>
 </sst>
 </file>
@@ -208,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -247,8 +324,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,4 +1000,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1879368-44C0-4A15-84C2-474FDA88F57E}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/2.Design/Compare_Function_Other.xlsx
+++ b/Document/2.Design/Compare_Function_Other.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D1E1C-366A-4D3D-9682-B3C146798820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C4EF9-110E-4633-8DF3-CBD48C1FDD32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SoSanh" sheetId="1" r:id="rId1"/>
-    <sheet name="DanhSachTinhNang" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>LogDez</t>
   </si>
@@ -139,82 +138,6 @@
   <si>
     <t>Bảng so sánh hệ thống Logdez - Các hệ thống Quản lý kho khác
 Chỉ so sánh các đầu mục chính, các tính năng cơ bản của hệ thống Kho bao gồm Xuất/Nhập/Tồn không so sánh)</t>
-  </si>
-  <si>
-    <t>Danh mục</t>
-  </si>
-  <si>
-    <t>Danh mục nhóm hàng hóa</t>
-  </si>
-  <si>
-    <t>Danh mục hàng hóa</t>
-  </si>
-  <si>
-    <t>Danh mục kho</t>
-  </si>
-  <si>
-    <t>Thiết lập vị trí trong kho khi tạo mới kho</t>
-  </si>
-  <si>
-    <t>Danh mục đối tác</t>
-  </si>
-  <si>
-    <t>Quản lý nhập kho</t>
-  </si>
-  <si>
-    <t>Nhập kho</t>
-  </si>
-  <si>
-    <t>Quản lý xuất kho</t>
-  </si>
-  <si>
-    <t>Xuất kho</t>
-  </si>
-  <si>
-    <t>Quản lý tồn kho</t>
-  </si>
-  <si>
-    <t>Thông tin kho</t>
-  </si>
-  <si>
-    <t>Tìm kiếm serial</t>
-  </si>
-  <si>
-    <t>Quản lý bán kho</t>
-  </si>
-  <si>
-    <t>Bán hàng</t>
-  </si>
-  <si>
-    <t>Tiện ích</t>
-  </si>
-  <si>
-    <t>Xem thông tin giao dịch</t>
-  </si>
-  <si>
-    <t>- Xem tồn kho tổng hợp, chi tiết
-- Xuất báo cáo tồn kho theo số lượng, tồn tiền
-- Tra cứu thẻ kho</t>
-  </si>
-  <si>
-    <t>Danh sách tính năng chính Hệ thống Quản lý kho-bán hàng Logdez</t>
-  </si>
-  <si>
-    <t>Quản trị hệ thống</t>
-  </si>
-  <si>
-    <t>Danh sách vai trò</t>
-  </si>
-  <si>
-    <t>Danh sách người dùng</t>
-  </si>
-  <si>
-    <t>- Thêm mới/sửa/xóa thông tin người dùng
-- Khóa người dùng
-- Thay đổi mật khẩu người dùng
-- Phân quyền vai trò
-- Phân quyền quản lý kho
-- Phân quyền đối tác</t>
   </si>
 </sst>
 </file>
@@ -285,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -324,17 +247,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1000,209 +914,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1879368-44C0-4A15-84C2-474FDA88F57E}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>